--- a/Finflux Automation Excels/Client/4712-SUBMITSAVINGS(WITHLOCKPRD2MONTHS)ON01JAN2015-DEPOSIT500on15JAN2015-WITHDRAW50on01FEB2015.xlsx
+++ b/Finflux Automation Excels/Client/4712-SUBMITSAVINGS(WITHLOCKPRD2MONTHS)ON01JAN2015-DEPOSIT500on15JAN2015-WITHDRAW50on01FEB2015.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
@@ -99,7 +99,7 @@
     <t>error</t>
   </si>
   <si>
-    <t>Withdrawals blocked until after `01 March 2015`.</t>
+    <t>Withdrawals blocked until `01 March 2015`.</t>
   </si>
 </sst>
 </file>
@@ -726,7 +726,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
